--- a/biology/Médecine/Lumière_(anatomie)/Lumière_(anatomie).xlsx
+++ b/biology/Médecine/Lumière_(anatomie)/Lumière_(anatomie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lumi%C3%A8re_(anatomie)</t>
+          <t>Lumière_(anatomie)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En anatomie, la lumière (en latin lumen) d'un organe creux désigne l'espace intérieur circonscrit par ses parois. On peut parler de la lumière de l'intestin grêle, d'un vaisseau sanguin, de tubes séminifères, de la lumière gastrique ou de la lumière du larynx. 
 On appelle vasoconstricteur une substance capable de rétrécir la lumière d'un vaisseau sanguin. Divers parasites, comme l'Ascaris, vivent dans la lumière d'un organe de son hôte.
